--- a/biology/Zoologie/Aenictus_laeviceps/Aenictus_laeviceps.xlsx
+++ b/biology/Zoologie/Aenictus_laeviceps/Aenictus_laeviceps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aenictus laeviceps est une petite espèce de fourmis légionnaires vivant en Asie du Sud-Est et Océanie, appartenant au genre Aenictus.
@@ -512,7 +524,9 @@
           <t>Comportement et cycle de vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces fourmis vivent en colonies nombreuses, de 60 000 à 100 000 individus.
 Le temps de développement de l'œuf à la pupe est de 65 jours.
@@ -544,9 +558,11 @@
           <t>Commensaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreux insectes myrmécophiles sont associés à A. laeviceps, en particulier des staphylins comme Mimaenictus wilsoni Kistner &amp; Jacobson, 1975 ou Aenictobia thoi Kistner &amp; Jacobson, 1975[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux insectes myrmécophiles sont associés à A. laeviceps, en particulier des staphylins comme Mimaenictus wilsoni Kistner &amp; Jacobson, 1975 ou Aenictobia thoi Kistner &amp; Jacobson, 1975
 </t>
         </is>
       </c>
